--- a/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF6BBA8-571D-40A9-BB74-3D24F116275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1640319B-F5CB-4221-8A8B-03E3288FE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80439E98-A1FF-4DF4-AE79-EA62580BBC56}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7FE76A4-2FD1-4F7A-9D31-D13AED4D61A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>37,66%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,16 +137,16 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -155,7 +155,7 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -164,28 +164,28 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,310 +197,304 @@
     <t>39,96%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>38,63%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>39,29%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>57,38%</t>
   </si>
   <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>58,29%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
   </si>
   <si>
     <t>57,84%</t>
   </si>
   <si>
-    <t>54,86%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>61,77%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
     <t>57,02%</t>
   </si>
   <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11101EF-6A52-4417-B76F-35C5B1818C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1920EC6-D05B-413C-81CC-D27BBDE85949}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1374,7 +1368,7 @@
         <v>1218</v>
       </c>
       <c r="N10" s="7">
-        <v>1105618</v>
+        <v>1105617</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1455,7 +1449,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1464,13 +1458,13 @@
         <v>19241</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -1479,7 +1473,7 @@
         <v>35406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>85</v>
@@ -1527,7 +1521,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>1911464</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1589,7 +1583,7 @@
         <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1598,13 @@
         <v>217053</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>325</v>
@@ -1619,13 +1613,13 @@
         <v>246674</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>534</v>
@@ -1634,13 +1628,13 @@
         <v>463728</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1649,13 @@
         <v>2489</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1670,13 +1664,13 @@
         <v>3769</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1688,10 +1682,10 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1721,13 +1715,13 @@
         <v>1798</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1736,13 +1730,13 @@
         <v>1798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1804,13 @@
         <v>622172</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>936</v>
@@ -1825,13 +1819,13 @@
         <v>660423</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>1592</v>
@@ -1840,13 +1834,13 @@
         <v>1282595</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1855,13 @@
         <v>851512</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>1347</v>
@@ -1876,13 +1870,13 @@
         <v>955697</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
@@ -1891,13 +1885,13 @@
         <v>1807210</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1906,13 @@
         <v>13375</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -1927,13 +1921,13 @@
         <v>19731</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -1942,13 +1936,13 @@
         <v>33106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1957,13 @@
         <v>25391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -1978,13 +1972,13 @@
         <v>40368</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -1993,13 +1987,13 @@
         <v>65759</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2049,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1640319B-F5CB-4221-8A8B-03E3288FE046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{676D6D2C-4EE6-4E8F-8C09-7C33DE660989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7FE76A4-2FD1-4F7A-9D31-D13AED4D61A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2179242-C0E1-4C4F-BBE7-9A34BF668B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -909,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1920EC6-D05B-413C-81CC-D27BBDE85949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C6425F-0987-46BF-AF5F-EE2FE36490DB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676D6D2C-4EE6-4E8F-8C09-7C33DE660989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97767A50-67D9-462A-B09F-BFC9A016DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2179242-C0E1-4C4F-BBE7-9A34BF668B2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8990CA-DFB7-488C-A091-80E5ECA5AFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>37,66%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,241 +137,247 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0%</t>
@@ -398,91 +404,91 @@
     <t>41,14%</t>
   </si>
   <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>40,22%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>57,02%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
   </si>
   <si>
     <t>56,68%</t>
   </si>
   <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,51%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -491,10 +497,10 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -909,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C6425F-0987-46BF-AF5F-EE2FE36490DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D4A73-CB5A-4802-BAD4-5B046B7473A5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1368,7 +1374,7 @@
         <v>1218</v>
       </c>
       <c r="N10" s="7">
-        <v>1105617</v>
+        <v>1105618</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1449,7 +1455,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -1458,13 +1464,13 @@
         <v>19241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -1473,7 +1479,7 @@
         <v>35406</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>85</v>
@@ -1521,7 +1527,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911464</v>
+        <v>1911465</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1583,7 +1589,7 @@
         <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1598,13 +1604,13 @@
         <v>217053</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>325</v>
@@ -1613,13 +1619,13 @@
         <v>246674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>534</v>
@@ -1628,13 +1634,13 @@
         <v>463728</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1655,13 @@
         <v>2489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -1664,13 +1670,13 @@
         <v>3769</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -1682,10 +1688,10 @@
         <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1715,13 +1721,13 @@
         <v>1798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1730,13 +1736,13 @@
         <v>1798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1810,13 @@
         <v>622172</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>936</v>
@@ -1819,13 +1825,13 @@
         <v>660423</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>1592</v>
@@ -1834,13 +1840,13 @@
         <v>1282595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,13 +1861,13 @@
         <v>851512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>1347</v>
@@ -1870,13 +1876,13 @@
         <v>955697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
@@ -1885,13 +1891,13 @@
         <v>1807210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1912,13 @@
         <v>13375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -1921,13 +1927,13 @@
         <v>19731</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -1936,13 +1942,13 @@
         <v>33106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1963,13 @@
         <v>25391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -1972,13 +1978,13 @@
         <v>40368</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -1987,13 +1993,13 @@
         <v>65759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97767A50-67D9-462A-B09F-BFC9A016DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10F038D-3DD8-43BF-A26D-4189644E35C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD8990CA-DFB7-488C-A091-80E5ECA5AFF3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D978DF85-11D0-4BB6-A74E-8725137BB53E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -71,313 +71,313 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0%</t>
@@ -386,13 +386,13 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -401,106 +401,112 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935D4A73-CB5A-4802-BAD4-5B046B7473A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB55F77-81CF-42E1-8DB7-2E634304A26F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1042,7 @@
         <v>179</v>
       </c>
       <c r="D4" s="7">
-        <v>138478</v>
+        <v>131830</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1051,7 +1057,7 @@
         <v>364</v>
       </c>
       <c r="I4" s="7">
-        <v>202935</v>
+        <v>182122</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1066,7 +1072,7 @@
         <v>543</v>
       </c>
       <c r="N4" s="7">
-        <v>341413</v>
+        <v>313952</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1087,7 +1093,7 @@
         <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>90379</v>
+        <v>87697</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1102,7 +1108,7 @@
         <v>239</v>
       </c>
       <c r="I5" s="7">
-        <v>147484</v>
+        <v>134220</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1117,7 +1123,7 @@
         <v>345</v>
       </c>
       <c r="N5" s="7">
-        <v>237864</v>
+        <v>221917</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1138,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1907</v>
+        <v>1808</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1153,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>5520</v>
+        <v>5149</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1168,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>7427</v>
+        <v>6957</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1189,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>9226</v>
+        <v>9543</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1204,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>19329</v>
+        <v>16283</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1219,7 +1225,7 @@
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>28555</v>
+        <v>25826</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1240,7 +1246,7 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>239991</v>
+        <v>230877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1255,7 +1261,7 @@
         <v>633</v>
       </c>
       <c r="I8" s="7">
-        <v>375268</v>
+        <v>337775</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1270,7 +1276,7 @@
         <v>933</v>
       </c>
       <c r="N8" s="7">
-        <v>615259</v>
+        <v>568652</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1293,7 +1299,7 @@
         <v>370</v>
       </c>
       <c r="D9" s="7">
-        <v>378906</v>
+        <v>353215</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1308,7 +1314,7 @@
         <v>465</v>
       </c>
       <c r="I9" s="7">
-        <v>372114</v>
+        <v>386345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1323,7 +1329,7 @@
         <v>835</v>
       </c>
       <c r="N9" s="7">
-        <v>751020</v>
+        <v>739560</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1344,46 +1350,46 @@
         <v>435</v>
       </c>
       <c r="D10" s="7">
-        <v>544079</v>
+        <v>738655</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>783</v>
       </c>
       <c r="I10" s="7">
-        <v>561539</v>
+        <v>520847</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1218</v>
       </c>
       <c r="N10" s="7">
-        <v>1105618</v>
+        <v>1259502</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,46 +1401,46 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>8979</v>
+        <v>9319</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>10442</v>
+        <v>11634</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
       </c>
       <c r="N11" s="7">
-        <v>19420</v>
+        <v>20953</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,46 +1452,46 @@
         <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>16165</v>
+        <v>15944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>19241</v>
+        <v>18487</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
       </c>
       <c r="N12" s="7">
-        <v>35406</v>
+        <v>34431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,7 +1503,7 @@
         <v>834</v>
       </c>
       <c r="D13" s="7">
-        <v>948129</v>
+        <v>1117133</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1512,7 +1518,7 @@
         <v>1291</v>
       </c>
       <c r="I13" s="7">
-        <v>963336</v>
+        <v>937313</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1533,7 @@
         <v>2125</v>
       </c>
       <c r="N13" s="7">
-        <v>1911465</v>
+        <v>2054446</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1550,46 +1556,46 @@
         <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>104788</v>
+        <v>98194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
       </c>
       <c r="I14" s="7">
-        <v>85374</v>
+        <v>76843</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>214</v>
       </c>
       <c r="N14" s="7">
-        <v>190162</v>
+        <v>175036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,46 +1607,46 @@
         <v>209</v>
       </c>
       <c r="D15" s="7">
-        <v>217053</v>
+        <v>209762</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>325</v>
       </c>
       <c r="I15" s="7">
-        <v>246674</v>
+        <v>228597</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>534</v>
       </c>
       <c r="N15" s="7">
-        <v>463728</v>
+        <v>438359</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,40 +1658,40 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2489</v>
+        <v>2227</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>3769</v>
+        <v>3526</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>6258</v>
+        <v>5752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>112</v>
@@ -1706,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>114</v>
@@ -1718,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1798</v>
+        <v>1663</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -1733,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>1798</v>
+        <v>1663</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1742,7 +1748,7 @@
         <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1760,7 @@
         <v>318</v>
       </c>
       <c r="D18" s="7">
-        <v>324330</v>
+        <v>310183</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1769,7 +1775,7 @@
         <v>442</v>
       </c>
       <c r="I18" s="7">
-        <v>337615</v>
+        <v>310628</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1784,7 +1790,7 @@
         <v>760</v>
       </c>
       <c r="N18" s="7">
-        <v>661946</v>
+        <v>620811</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1807,46 +1813,46 @@
         <v>656</v>
       </c>
       <c r="D19" s="7">
-        <v>622172</v>
+        <v>583238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>936</v>
       </c>
       <c r="I19" s="7">
-        <v>660423</v>
+        <v>645310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>1592</v>
       </c>
       <c r="N19" s="7">
-        <v>1282595</v>
+        <v>1228548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,46 +1864,46 @@
         <v>750</v>
       </c>
       <c r="D20" s="7">
-        <v>851512</v>
+        <v>1036114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>1347</v>
       </c>
       <c r="I20" s="7">
-        <v>955697</v>
+        <v>883664</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>2097</v>
       </c>
       <c r="N20" s="7">
-        <v>1807210</v>
+        <v>1919778</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,46 +1915,46 @@
         <v>12</v>
       </c>
       <c r="D21" s="7">
-        <v>13375</v>
+        <v>13353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>19731</v>
+        <v>20309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
       </c>
       <c r="N21" s="7">
-        <v>33106</v>
+        <v>33662</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,46 +1966,46 @@
         <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>25391</v>
+        <v>25487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
       </c>
       <c r="I22" s="7">
-        <v>40368</v>
+        <v>36433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>65759</v>
+        <v>61921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
         <v>1452</v>
       </c>
       <c r="D23" s="7">
-        <v>1512450</v>
+        <v>1658193</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2026,7 +2032,7 @@
         <v>2366</v>
       </c>
       <c r="I23" s="7">
-        <v>1676219</v>
+        <v>1585716</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2041,7 +2047,7 @@
         <v>3818</v>
       </c>
       <c r="N23" s="7">
-        <v>3188669</v>
+        <v>3243909</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
